--- a/config/敌人设计.xlsx
+++ b/config/敌人设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>木桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="9" style="1"/>
+    <col min="1" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,25 +495,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -519,8 +530,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -531,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -546,10 +558,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -560,25 +575,28 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1</v>
@@ -593,17 +611,20 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>3.2</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>2</v>
@@ -618,17 +639,20 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>40</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>3</v>
@@ -643,13 +667,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
         <v>60</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2.8</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>2</v>
       </c>
     </row>
